--- a/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="COOLMATE-002" sheetId="1" r:id="rId1"/>
+    <sheet name="COOLMATE-003" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -56,44 +56,57 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>Unauthenticated User</t>
-  </si>
-  <si>
-    <t>TC001-Searching products as an unauthenticated user</t>
-  </si>
-  <si>
-    <t>TC002-Searching products as an authenticated user</t>
-  </si>
-  <si>
-    <t>Authenticated User</t>
-  </si>
-  <si>
-    <t>Products related to the valid search keys will displayed properly and don't show unrelated products.</t>
-  </si>
-  <si>
-    <t>The system shows the message: "Không tìm thấy kết quả phù hợp!"</t>
-  </si>
-  <si>
-    <t>Entering  invalid keys to search related products</t>
-  </si>
-  <si>
-    <t>Entering invalid keys to search related products</t>
-  </si>
-  <si>
-    <t>TS001-Search Product</t>
-  </si>
-  <si>
-    <t>As an unauthenticated user, entering valid keys to search related products</t>
-  </si>
-  <si>
-    <t>As an authenticated user, entering valid keys to search related products</t>
+    <t>TS001-Update Account Info</t>
+  </si>
+  <si>
+    <t>Enter OTP code to update user information</t>
+  </si>
+  <si>
+    <t>TC001-Update with valid phone number</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Successfully update with changed data</t>
+  </si>
+  <si>
+    <t>Send the OTP code to enter the phone number and display the "OTP Authentication" Popup for the user to enter</t>
+  </si>
+  <si>
+    <t>As an authenticated user, updating user information with valid phone number</t>
+  </si>
+  <si>
+    <t>As an authenticated user, updating user information with invalid phone number</t>
+  </si>
+  <si>
+    <t>As an authenticated user, updating user information with existing phone number</t>
+  </si>
+  <si>
+    <t>TC002-Update with invalid phone number</t>
+  </si>
+  <si>
+    <t>TC003-Update with exsting phone number</t>
+  </si>
+  <si>
+    <t>The system shows error message 
+"*Số điện thoại này đã được sử dụng. 
+Nếu thêm cần hỗ trợ vui lòng liên hệ bộ phận CSKH."</t>
+  </si>
+  <si>
+    <t>The system shows error message  
+"SĐT phải là 10 số" or 
+"SĐT không hợp lệ"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +124,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,37 +218,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -514,22 +526,22 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,99 +567,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -656,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
@@ -99,7 +99,8 @@
   <si>
     <t>The system shows error message  
 "SĐT phải là 10 số" or 
-"SĐT không hợp lệ"</t>
+"SĐT không hợp lệ"or
+"Không được để trống số điện thoại"</t>
   </si>
 </sst>
 </file>
@@ -526,7 +527,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +535,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -587,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -619,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>

--- a/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncbao\Downloads\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaoNguyen\OneDrive\Máy tính\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319262E-D6D8-4ECE-8F1B-9EEA153154CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COOLMATE-003" sheetId="1" r:id="rId1"/>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,26 +524,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -594,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -620,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -646,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaoNguyen\OneDrive\Máy tính\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncbao\Downloads\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319262E-D6D8-4ECE-8F1B-9EEA153154CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="COOLMATE-003" sheetId="1" r:id="rId1"/>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,26 +523,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -595,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -621,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -647,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
